--- a/0_Resources/Problems/1_Spreadsheets_Intro/1_Spreadsheets_Intro_Solution.xlsx
+++ b/0_Resources/Problems/1_Spreadsheets_Intro/1_Spreadsheets_Intro_Solution.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\0_Resources\Problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\0_Resources\Problems\1_Spreadsheets_Intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2924AC7-E90D-4BD1-B001-E8C1A7FC2E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8926198-7857-497B-871C-87C1D98D67B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86D7107E-0634-4B38-BA6C-8A80968FF286}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{86D7107E-0634-4B38-BA6C-8A80968FF286}"/>
   </bookViews>
   <sheets>
     <sheet name="1_Worksheets" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Job Title</t>
   </si>
@@ -45,18 +45,12 @@
     <t>Years of Experience</t>
   </si>
   <si>
-    <t>Average Salary</t>
-  </si>
-  <si>
     <t>Demand</t>
   </si>
   <si>
     <t>Number of Skills</t>
   </si>
   <si>
-    <t>Do you meet experience?</t>
-  </si>
-  <si>
     <t>Data Analyst</t>
   </si>
   <si>
@@ -70,13 +64,26 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>Qualified?</t>
+  </si>
+  <si>
+    <t>Average Yearly Salary</t>
+  </si>
+  <si>
+    <t>Average Hourly Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +93,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -102,12 +116,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -130,20 +144,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,99 +510,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A623D676-0E05-4EF4-BD5F-02A7D570A8AB}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>3</v>
       </c>
       <c r="C2" s="2">
         <v>70000</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="b">
+      <c r="F2" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G2" s="3">
+        <f>C2/(52*40)</f>
+        <v>33.653846153846153</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
         <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>100000</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G4" si="0">C3/(52*40)</f>
+        <v>48.07692307692308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>90000</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="b">
+      <c r="F4" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>43.269230769230766</v>
       </c>
     </row>
   </sheetData>

--- a/0_Resources/Problems/1_Spreadsheets_Intro/1_Spreadsheets_Intro_Solution.xlsx
+++ b/0_Resources/Problems/1_Spreadsheets_Intro/1_Spreadsheets_Intro_Solution.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\0_Resources\Problems\1_Spreadsheets_Intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8926198-7857-497B-871C-87C1D98D67B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D8EB6E-780A-4A54-A0DC-19098264667D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{86D7107E-0634-4B38-BA6C-8A80968FF286}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18330" windowHeight="12855" activeTab="1" xr2:uid="{86D7107E-0634-4B38-BA6C-8A80968FF286}"/>
   </bookViews>
   <sheets>
     <sheet name="1_Worksheets" sheetId="1" r:id="rId1"/>
-    <sheet name="2_Workbooks" sheetId="2" r:id="rId2"/>
+    <sheet name="2_Workbooks" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Job Title</t>
   </si>
@@ -73,15 +73,41 @@
   </si>
   <si>
     <t>Average Hourly Salary</t>
+  </si>
+  <si>
+    <t>Experience (Years)</t>
+  </si>
+  <si>
+    <t>Remote Work</t>
+  </si>
+  <si>
+    <t>Salary ($USD)</t>
+  </si>
+  <si>
+    <t>Annual Bonuses ($USD)</t>
+  </si>
+  <si>
+    <t>401K Contribution (%)</t>
+  </si>
+  <si>
+    <t>Number of Shares Granted</t>
+  </si>
+  <si>
+    <t>Stock Option Share Price ($USD)</t>
+  </si>
+  <si>
+    <t>ML Engineer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -160,12 +186,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -175,6 +201,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -512,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A623D676-0E05-4EF4-BD5F-02A7D570A8AB}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,15 +656,302 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA8E3B5-80BE-4C43-9709-03A3EB70C5FB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C630D079-24E7-42E1-BB88-A1B8E9BB24F4}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>134973</v>
+      </c>
+      <c r="E2" s="6">
+        <v>24000</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G2">
+        <v>41</v>
+      </c>
+      <c r="H2" s="8">
+        <v>131.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>186476</v>
+      </c>
+      <c r="E3" s="6">
+        <v>17000</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+      <c r="H3" s="8">
+        <v>168.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>131845</v>
+      </c>
+      <c r="E4" s="6">
+        <v>9000</v>
+      </c>
+      <c r="F4" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <v>44</v>
+      </c>
+      <c r="H4" s="8">
+        <v>257.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>181473</v>
+      </c>
+      <c r="E5" s="6">
+        <v>16000</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5" s="8">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>111262</v>
+      </c>
+      <c r="E6" s="6">
+        <v>19000</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6" s="8">
+        <v>100.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>117020</v>
+      </c>
+      <c r="E7" s="6">
+        <v>12000</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="8">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>126162</v>
+      </c>
+      <c r="E8" s="6">
+        <v>12000</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8" s="8">
+        <v>237.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>189073</v>
+      </c>
+      <c r="E9" s="6">
+        <v>17000</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="G9">
+        <v>49</v>
+      </c>
+      <c r="H9" s="8">
+        <v>116.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>82495</v>
+      </c>
+      <c r="E10" s="6">
+        <v>26000</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+      <c r="H10" s="8">
+        <v>200.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>134208</v>
+      </c>
+      <c r="E11" s="6">
+        <v>27000</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+      <c r="H11" s="8">
+        <v>274.58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/0_Resources/Problems/1_Spreadsheets_Intro/1_Spreadsheets_Intro_Solution.xlsx
+++ b/0_Resources/Problems/1_Spreadsheets_Intro/1_Spreadsheets_Intro_Solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\0_Resources\Problems\1_Spreadsheets_Intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D8EB6E-780A-4A54-A0DC-19098264667D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23AA10E-8E3C-4B20-9601-E1783ABD291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18330" windowHeight="12855" activeTab="1" xr2:uid="{86D7107E-0634-4B38-BA6C-8A80968FF286}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{86D7107E-0634-4B38-BA6C-8A80968FF286}"/>
   </bookViews>
   <sheets>
     <sheet name="1_Worksheets" sheetId="1" r:id="rId1"/>
@@ -660,7 +660,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/0_Resources/Problems/1_Spreadsheets_Intro/1_Spreadsheets_Intro_Solution.xlsx
+++ b/0_Resources/Problems/1_Spreadsheets_Intro/1_Spreadsheets_Intro_Solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28120"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\0_Resources\Problems\1_Spreadsheets_Intro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\0_Resources\Problems\1_Spreadsheets_Intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23AA10E-8E3C-4B20-9601-E1783ABD291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9DE149-2D8B-4C84-AD70-4460EF1E10D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{86D7107E-0634-4B38-BA6C-8A80968FF286}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{86D7107E-0634-4B38-BA6C-8A80968FF286}"/>
   </bookViews>
   <sheets>
     <sheet name="1_Worksheets" sheetId="1" r:id="rId1"/>
@@ -542,20 +542,20 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.73046875" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" customWidth="1"/>
+    <col min="3" max="3" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.265625" customWidth="1"/>
+    <col min="6" max="6" width="26.73046875" customWidth="1"/>
+    <col min="7" max="7" width="20.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -578,7 +578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -602,7 +602,7 @@
         <v>33.653846153846153</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -626,7 +626,7 @@
         <v>48.07692307692308</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -663,9 +663,9 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -717,7 +717,7 @@
         <v>131.21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -743,7 +743,7 @@
         <v>168.6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -769,7 +769,7 @@
         <v>257.32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -795,7 +795,7 @@
         <v>137.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -821,7 +821,7 @@
         <v>100.75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -847,7 +847,7 @@
         <v>90.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -873,7 +873,7 @@
         <v>237.21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -899,7 +899,7 @@
         <v>116.02</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -925,7 +925,7 @@
         <v>200.01</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>7</v>
       </c>
